--- a/data/student_empty_template.xlsx
+++ b/data/student_empty_template.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgWpBLxuhQWdxoafnOOth+qtYzj6g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg0ZnAhgU1YfHO0NIjlzAXO/9snPg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>رزومه</t>
+  </si>
+  <si>
+    <t>شماره تماس</t>
   </si>
   <si>
     <t>استاد انتخاب شده اول</t>
@@ -492,10 +495,10 @@
     <col customWidth="1" min="3" max="3" width="10.63"/>
     <col customWidth="1" min="4" max="4" width="10.88"/>
     <col customWidth="1" min="5" max="5" width="13.38"/>
-    <col customWidth="1" min="6" max="7" width="16.5"/>
-    <col customWidth="1" min="8" max="8" width="24.88"/>
-    <col customWidth="1" min="9" max="11" width="25.5"/>
-    <col customWidth="1" min="12" max="17" width="7.63"/>
+    <col customWidth="1" min="6" max="8" width="16.5"/>
+    <col customWidth="1" min="9" max="9" width="24.88"/>
+    <col customWidth="1" min="10" max="12" width="25.5"/>
+    <col customWidth="1" min="13" max="18" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -514,7 +517,7 @@
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -526,32 +529,33 @@
       <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="11"/>
-      <c r="H2" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="11"/>
       <c r="I2" s="12" t="s">
         <v>13</v>
       </c>
@@ -560,6 +564,9 @@
       </c>
       <c r="K2" s="12" t="s">
         <v>15</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -572,10 +579,11 @@
       <c r="E3" s="15"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="9"/>
@@ -585,10 +593,11 @@
       <c r="E4" s="17"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5">
       <c r="A5" s="13">
@@ -600,10 +609,11 @@
       <c r="E5" s="15"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="9"/>
@@ -613,10 +623,11 @@
       <c r="E6" s="17"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="13">
@@ -628,10 +639,11 @@
       <c r="E7" s="15"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="9"/>
@@ -641,10 +653,11 @@
       <c r="E8" s="17"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="13">
@@ -656,10 +669,11 @@
       <c r="E9" s="15"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="9"/>
@@ -669,10 +683,11 @@
       <c r="E10" s="17"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="13">
@@ -684,10 +699,11 @@
       <c r="E11" s="15"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="9"/>
@@ -697,10 +713,11 @@
       <c r="E12" s="17"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="13">
@@ -712,10 +729,11 @@
       <c r="E13" s="15"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
@@ -725,10 +743,11 @@
       <c r="E14" s="17"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="13">
@@ -740,10 +759,11 @@
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
@@ -753,10 +773,11 @@
       <c r="E16" s="17"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="13">
@@ -768,10 +789,11 @@
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
@@ -781,10 +803,11 @@
       <c r="E18" s="17"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19">
       <c r="A19" s="13">
@@ -796,10 +819,11 @@
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="9"/>
@@ -809,10 +833,11 @@
       <c r="E20" s="17"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="13">
@@ -824,10 +849,11 @@
       <c r="E21" s="15"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
@@ -837,10 +863,11 @@
       <c r="E22" s="17"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="13">
@@ -852,10 +879,11 @@
       <c r="E23" s="15"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
@@ -865,10 +893,11 @@
       <c r="E24" s="17"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13">
@@ -880,10 +909,11 @@
       <c r="E25" s="15"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
@@ -893,10 +923,11 @@
       <c r="E26" s="17"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13">
@@ -908,10 +939,11 @@
       <c r="E27" s="15"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
@@ -921,10 +953,11 @@
       <c r="E28" s="17"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13">
@@ -936,10 +969,11 @@
       <c r="E29" s="15"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
@@ -949,10 +983,11 @@
       <c r="E30" s="17"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="13">
@@ -964,10 +999,11 @@
       <c r="E31" s="15"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
@@ -977,10 +1013,11 @@
       <c r="E32" s="17"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="13">
@@ -992,10 +1029,11 @@
       <c r="E33" s="15"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
@@ -1005,10 +1043,11 @@
       <c r="E34" s="17"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="13">
@@ -1020,10 +1059,11 @@
       <c r="E35" s="15"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
@@ -1033,10 +1073,11 @@
       <c r="E36" s="17"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="13">
@@ -1048,10 +1089,11 @@
       <c r="E37" s="15"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="16"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
@@ -1061,10 +1103,11 @@
       <c r="E38" s="17"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="13">
@@ -1076,10 +1119,11 @@
       <c r="E39" s="15"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
@@ -1089,10 +1133,11 @@
       <c r="E40" s="17"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="16"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="13">
@@ -1104,10 +1149,11 @@
       <c r="E41" s="15"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="16"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
@@ -1117,10 +1163,11 @@
       <c r="E42" s="17"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13">
@@ -1132,10 +1179,11 @@
       <c r="E43" s="15"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="9"/>
@@ -1145,10 +1193,11 @@
       <c r="E44" s="17"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="13">
@@ -1160,10 +1209,11 @@
       <c r="E45" s="15"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
@@ -1173,10 +1223,11 @@
       <c r="E46" s="17"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="16"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="13">
@@ -1188,10 +1239,11 @@
       <c r="E47" s="15"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
@@ -1201,10 +1253,11 @@
       <c r="E48" s="17"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="13">
@@ -1216,10 +1269,11 @@
       <c r="E49" s="15"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
@@ -1229,10 +1283,11 @@
       <c r="E50" s="17"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="16"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="13">
@@ -1244,10 +1299,11 @@
       <c r="E51" s="15"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
@@ -1257,10 +1313,11 @@
       <c r="E52" s="17"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="13">
@@ -1272,10 +1329,11 @@
       <c r="E53" s="15"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="16"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
@@ -1285,10 +1343,11 @@
       <c r="E54" s="17"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="13">
@@ -1300,10 +1359,11 @@
       <c r="E55" s="15"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="9"/>
@@ -1313,10 +1373,11 @@
       <c r="E56" s="17"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="16"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="13">
@@ -1328,10 +1389,11 @@
       <c r="E57" s="15"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="16"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="9"/>
@@ -1341,10 +1403,11 @@
       <c r="E58" s="17"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="16"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="13">
@@ -1356,10 +1419,11 @@
       <c r="E59" s="15"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="16"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
@@ -1369,10 +1433,11 @@
       <c r="E60" s="17"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="16"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="13">
@@ -1384,10 +1449,11 @@
       <c r="E61" s="15"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
@@ -1397,10 +1463,11 @@
       <c r="E62" s="17"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="13">
@@ -1412,10 +1479,11 @@
       <c r="E63" s="15"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="16"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
@@ -1425,10 +1493,11 @@
       <c r="E64" s="17"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="16"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="13">
@@ -1440,10 +1509,11 @@
       <c r="E65" s="15"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="16"/>
+      <c r="H65" s="14"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="9"/>
@@ -1453,10 +1523,11 @@
       <c r="E66" s="17"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="16"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="13">
@@ -1468,10 +1539,11 @@
       <c r="E67" s="15"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="16"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="9"/>
@@ -1481,10 +1553,11 @@
       <c r="E68" s="17"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="16"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="13">
@@ -1496,10 +1569,11 @@
       <c r="E69" s="15"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="16"/>
+      <c r="H69" s="14"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="9"/>
@@ -1509,10 +1583,11 @@
       <c r="E70" s="17"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="16"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="13">
@@ -1524,10 +1599,11 @@
       <c r="E71" s="15"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="16"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="9"/>
@@ -1537,10 +1613,11 @@
       <c r="E72" s="17"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="16"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="13">
@@ -1552,10 +1629,11 @@
       <c r="E73" s="15"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
-      <c r="H73" s="16"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="9"/>
@@ -1565,10 +1643,11 @@
       <c r="E74" s="17"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="16"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="13">
@@ -1580,10 +1659,11 @@
       <c r="E75" s="15"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
-      <c r="H75" s="16"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="9"/>
@@ -1593,10 +1673,11 @@
       <c r="E76" s="17"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="13">
@@ -1608,10 +1689,11 @@
       <c r="E77" s="15"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="16"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="9"/>
@@ -1621,10 +1703,11 @@
       <c r="E78" s="17"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="16"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="13">
@@ -1636,10 +1719,11 @@
       <c r="E79" s="15"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="14"/>
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="9"/>
@@ -1649,10 +1733,11 @@
       <c r="E80" s="17"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="13">
@@ -1664,10 +1749,11 @@
       <c r="E81" s="15"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="14"/>
       <c r="I81" s="16"/>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="9"/>
@@ -1677,10 +1763,11 @@
       <c r="E82" s="17"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="16"/>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="13">
@@ -1692,10 +1779,11 @@
       <c r="E83" s="15"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="14"/>
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="9"/>
@@ -1705,10 +1793,11 @@
       <c r="E84" s="17"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="13">
@@ -1720,10 +1809,11 @@
       <c r="E85" s="15"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="16"/>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="9"/>
@@ -1733,10 +1823,11 @@
       <c r="E86" s="17"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="16"/>
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="13">
@@ -1748,10 +1839,11 @@
       <c r="E87" s="15"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="14"/>
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="9"/>
@@ -1761,10 +1853,11 @@
       <c r="E88" s="17"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="13">
@@ -1776,10 +1869,11 @@
       <c r="E89" s="15"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="9"/>
@@ -1789,10 +1883,11 @@
       <c r="E90" s="17"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
     </row>
     <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>
@@ -2705,91 +2800,294 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="357">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
     <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
     <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
     <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
     <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="G65:G66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="C75:C76"/>
@@ -2825,8 +3123,6 @@
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G89:G90"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -2834,25 +3130,13 @@
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
     <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -2860,164 +3144,20 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
